--- a/RadialFieldOps_2/RadialFieldScan.xlsx
+++ b/RadialFieldOps_2/RadialFieldScan.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/RadialFieldOps_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C32DB-9A9E-A542-8BA5-DAB4D43DE642}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A01643-28B5-9941-B868-B36852F4C1F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="760" windowWidth="23580" windowHeight="16540" xr2:uid="{3DAFEA06-3AA8-BB44-8E27-DDA65B3686C5}"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="32120" windowHeight="17540" xr2:uid="{3DAFEA06-3AA8-BB44-8E27-DDA65B3686C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="23">
   <si>
     <t>QHV [kV]</t>
   </si>
@@ -50,9 +52,6 @@
   </si>
   <si>
     <t>Integrated ctags (nearline)</t>
-  </si>
-  <si>
-    <t>SCC DQM OK?</t>
   </si>
   <si>
     <t>QHV [ppm]</t>
@@ -85,7 +84,28 @@
     <t>Moved to external?</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>Checked list</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong SCC file (production-01, no offset) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Br </t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Br bkg</t>
   </si>
 </sst>
 </file>
@@ -153,6 +173,3845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>-50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$4,Sheet1!$H$13,Sheet1!$H$22,Sheet1!$H$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>72.585099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.0732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.330699999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.503900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E32-AA4A-96EA-EAE4C1890743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>-30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$5,Sheet1!$H$14,Sheet1!$H$23,Sheet1!$H$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>72.928799999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.294799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.394999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E32-AA4A-96EA-EAE4C1890743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>-10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$6,Sheet1!$H$15,Sheet1!$H$24,Sheet1!$H$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>74.144800000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.2453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.210300000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.3001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9E32-AA4A-96EA-EAE4C1890743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$7,Sheet1!$H$16,Sheet1!$H$25,Sheet1!$H$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75.355900000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.258399999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.907200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.170699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9E32-AA4A-96EA-EAE4C1890743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$8,Sheet1!$H$17,Sheet1!$H$26,Sheet1!$H$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76.531300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.353499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.195700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.112700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9E32-AA4A-96EA-EAE4C1890743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$9,Sheet1!$H$18,Sheet1!$H$27,Sheet1!$H$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>77.789199999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.436000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.166600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.000100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9E32-AA4A-96EA-EAE4C1890743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="754409279"/>
+        <c:axId val="754410927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="754409279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4.5000000000000012E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754410927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="754410927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754409279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>-50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$13,Sheet1!$H$22,Sheet1!$H$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>72.0732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.330699999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.503900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A25C-B344-9FF5-5F48CAECA708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>-30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$5,Sheet1!$H$14,Sheet1!$H$23,Sheet1!$H$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>72.928799999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.294799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.394999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A25C-B344-9FF5-5F48CAECA708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>-10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$6,Sheet1!$H$15,Sheet1!$H$24,Sheet1!$H$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>74.144800000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.2453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.210300000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.3001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A25C-B344-9FF5-5F48CAECA708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$7,Sheet1!$H$16,Sheet1!$H$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>75.355900000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.258399999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.170699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A25C-B344-9FF5-5F48CAECA708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$8,Sheet1!$H$17,Sheet1!$H$26,Sheet1!$H$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76.531300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.353499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.195700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.112700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A25C-B344-9FF5-5F48CAECA708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$20,Sheet1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$H$9,Sheet1!$H$18,Sheet1!$H$27,Sheet1!$H$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>77.789199999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.436000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.166600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.000100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A25C-B344-9FF5-5F48CAECA708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="754409279"/>
+        <c:axId val="754410927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="754409279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4.5000000000000012E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754410927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="754410927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754409279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>0.317</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> ppm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.151000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.2601000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23.277000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-38.267000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1316-F848-9C11-09E8E7BE70C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="752948207"/>
+        <c:axId val="753129375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="752948207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753129375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="753129375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752948207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E119056C-6895-F049-A9DC-5EDAAA56238E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31286CC-AFEC-0049-91EB-2B42F40FAE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFAB4BF-971F-F645-AC6E-FDC742B25561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,48 +4311,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B752E6E-F960-2F47-AC55-2B0104D935A3}">
-  <dimension ref="A2:K42"/>
+  <dimension ref="A2:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="65" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y30:Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
+      <c r="C2">
+        <f>1/B2</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -508,7 +4372,7 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -519,19 +4383,19 @@
         <v>37857</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4">
         <v>72.585099999999997</v>
@@ -542,7 +4406,9 @@
       <c r="J4" s="4">
         <v>1064792</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -552,19 +4418,28 @@
         <v>37858</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>72.928799999999995</v>
+      </c>
+      <c r="I5">
+        <v>2.2677900000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>1614611</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -575,19 +4450,28 @@
         <v>37859</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>74.144800000000004</v>
+      </c>
+      <c r="I6">
+        <v>1.78356E-2</v>
+      </c>
+      <c r="J6">
+        <v>2619615</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -598,19 +4482,28 @@
         <v>37860</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>75.355900000000005</v>
+      </c>
+      <c r="I7">
+        <v>2.1748300000000002E-2</v>
+      </c>
+      <c r="J7">
+        <v>1761429</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -621,19 +4514,28 @@
         <v>37861</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>76.531300000000002</v>
+      </c>
+      <c r="I8">
+        <v>1.7846600000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>2611998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -644,50 +4546,63 @@
         <v>37862</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>77.789199999999994</v>
+      </c>
+      <c r="I9">
+        <v>2.4903100000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>1334549</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
+      <c r="C11">
+        <f>1/B11</f>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
@@ -699,181 +4614,235 @@
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2">
-        <v>37864</v>
+      <c r="A13">
+        <v>-50</v>
+      </c>
+      <c r="B13">
+        <v>37869</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>72.0732</v>
+      </c>
+      <c r="I13">
+        <v>2.2598400000000001E-2</v>
+      </c>
+      <c r="J13">
+        <v>1619373</v>
+      </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>-30</v>
+      </c>
+      <c r="B14">
+        <v>37868</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>73.119</v>
+      </c>
+      <c r="I14">
+        <v>2.2901999999999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>1582426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>-10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37867</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>74.2453</v>
+      </c>
+      <c r="I15">
+        <v>1.90314E-2</v>
+      </c>
+      <c r="J15">
+        <v>2298296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>37866</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>75.258399999999995</v>
+      </c>
+      <c r="I16">
+        <v>1.4714700000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>3852797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>37865</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>37866</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>-10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>37867</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>-30</v>
-      </c>
-      <c r="B17">
-        <v>37868</v>
-      </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>-50</v>
-      </c>
-      <c r="B18">
-        <v>37869</v>
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>76.353499999999997</v>
+      </c>
+      <c r="I17">
+        <v>2.5406499999999999E-2</v>
+      </c>
+      <c r="J17">
+        <v>1288589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
+        <v>37864</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>77.436000000000007</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.9880200000000001E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2096121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>1/B20</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
       </c>
       <c r="H21" t="s">
         <v>1</v>
@@ -885,10 +4854,10 @@
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>-50</v>
       </c>
@@ -896,26 +4865,32 @@
         <v>37871</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2">
+        <v>72.330699999999993</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.7525200000000001E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2692482</v>
+      </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-30</v>
       </c>
@@ -923,22 +4898,31 @@
         <v>37872</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>73.294799999999995</v>
+      </c>
+      <c r="I23">
+        <v>1.7203400000000001E-2</v>
+      </c>
+      <c r="J23">
+        <v>2804680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-10</v>
       </c>
@@ -946,45 +4930,66 @@
         <v>37873</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>74.210300000000004</v>
+      </c>
+      <c r="I24">
+        <v>1.8650300000000002E-2</v>
+      </c>
+      <c r="J24">
+        <v>2392819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4">
         <v>37874</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="4">
+        <v>75.907200000000003</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.9600200000000002E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2168884</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>30</v>
       </c>
@@ -992,22 +4997,31 @@
         <v>37875</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>76.195700000000002</v>
+      </c>
+      <c r="I26">
+        <v>1.6867400000000001E-2</v>
+      </c>
+      <c r="J26">
+        <v>2924385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50</v>
       </c>
@@ -1015,50 +5029,69 @@
         <v>37876</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>77.166600000000003</v>
+      </c>
+      <c r="I27">
+        <v>2.06094E-2</v>
+      </c>
+      <c r="J27">
+        <v>1954344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>1/B29</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
         <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
       </c>
       <c r="H30" t="s">
         <v>1</v>
@@ -1070,152 +5103,239 @@
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+        <v>16</v>
+      </c>
+      <c r="Y30">
         <v>50</v>
       </c>
+      <c r="Z30">
+        <v>39.151000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-50</v>
+      </c>
       <c r="B31" s="2">
+        <v>37882</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>72.503900000000002</v>
+      </c>
+      <c r="I31">
+        <v>1.8712400000000001E-2</v>
+      </c>
+      <c r="J31">
+        <v>2360453</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="Y31">
+        <v>30</v>
+      </c>
+      <c r="Z31">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>37881</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>73.394999999999996</v>
+      </c>
+      <c r="I32">
+        <v>1.39087E-2</v>
+      </c>
+      <c r="J32">
+        <v>4292010</v>
+      </c>
+      <c r="Y32">
+        <v>10</v>
+      </c>
+      <c r="Z32">
+        <v>9.1349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-10</v>
+      </c>
+      <c r="B33" s="2">
+        <v>37880</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>74.3001</v>
+      </c>
+      <c r="I33">
+        <v>2.1125999999999999E-2</v>
+      </c>
+      <c r="J33">
+        <v>1864351</v>
+      </c>
+      <c r="Y33">
+        <v>-10</v>
+      </c>
+      <c r="Z33">
+        <v>-6.2601000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>37879</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>75.170699999999997</v>
+      </c>
+      <c r="I34">
+        <v>1.9042799999999999E-2</v>
+      </c>
+      <c r="J34">
+        <v>2298394</v>
+      </c>
+      <c r="Y34">
+        <v>-30</v>
+      </c>
+      <c r="Z34">
+        <v>-23.277000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>37878</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>76.112700000000004</v>
+      </c>
+      <c r="I35">
+        <v>2.0464099999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>1983781</v>
+      </c>
+      <c r="Y35">
+        <v>-50</v>
+      </c>
+      <c r="Z35">
+        <v>-38.267000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
         <v>37877</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>37878</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>37879</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>-10</v>
-      </c>
-      <c r="B34" s="2">
-        <v>37880</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>-30</v>
-      </c>
-      <c r="B35" s="2">
-        <v>37881</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>-50</v>
-      </c>
-      <c r="B36" s="2">
-        <v>37882</v>
-      </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="2">
+        <v>77.000100000000003</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2.01256E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2049274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1227,22 +5347,1301 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:J36">
+    <sortCondition ref="A31:A36"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6A8D8-01A0-1C46-A2D1-628E1D9A77A8}">
+  <dimension ref="A1:S34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q2:S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>-50</v>
+      </c>
+      <c r="B2" s="4">
+        <v>37857</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>72.585099999999997</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.79143E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1064792</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="2">
+        <v>37857</v>
+      </c>
+      <c r="R2" s="2">
+        <v>14</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-30</v>
+      </c>
+      <c r="B3">
+        <v>37858</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>72.928799999999995</v>
+      </c>
+      <c r="I3">
+        <v>2.2677900000000001E-2</v>
+      </c>
+      <c r="J3">
+        <v>1614611</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>37869</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-10</v>
+      </c>
+      <c r="B4">
+        <v>37859</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>74.144800000000004</v>
+      </c>
+      <c r="I4">
+        <v>1.78356E-2</v>
+      </c>
+      <c r="J4">
+        <v>2619615</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="Q4" s="2">
+        <v>37871</v>
+      </c>
+      <c r="R4" s="2">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>37860</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>75.355900000000005</v>
+      </c>
+      <c r="I5">
+        <v>2.1748300000000002E-2</v>
+      </c>
+      <c r="J5">
+        <v>1761429</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="Q5" s="2">
+        <v>37882</v>
+      </c>
+      <c r="R5" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>37861</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>76.531300000000002</v>
+      </c>
+      <c r="I6">
+        <v>1.7846600000000001E-2</v>
+      </c>
+      <c r="J6">
+        <v>2611998</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>37858</v>
+      </c>
+      <c r="R6" s="2">
+        <v>14</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>37862</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>77.789199999999994</v>
+      </c>
+      <c r="I7">
+        <v>2.4903100000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>1334549</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>37868</v>
+      </c>
+      <c r="R7" s="2">
+        <v>16</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2">
+        <v>37872</v>
+      </c>
+      <c r="R8" s="2">
+        <v>18</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <f>1/B9</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>37881</v>
+      </c>
+      <c r="R9" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>37859</v>
+      </c>
+      <c r="R10" s="2">
+        <v>14</v>
+      </c>
+      <c r="S10" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-50</v>
+      </c>
+      <c r="B11">
+        <v>37869</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>72.0732</v>
+      </c>
+      <c r="I11">
+        <v>2.2598400000000001E-2</v>
+      </c>
+      <c r="J11">
+        <v>1619373</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>37867</v>
+      </c>
+      <c r="R11" s="2">
+        <v>16</v>
+      </c>
+      <c r="S11" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-30</v>
+      </c>
+      <c r="B12">
+        <v>37868</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>73.119</v>
+      </c>
+      <c r="I12">
+        <v>2.2901999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>1582426</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>37873</v>
+      </c>
+      <c r="R12" s="2">
+        <v>18</v>
+      </c>
+      <c r="S12" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>37867</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>74.2453</v>
+      </c>
+      <c r="I13">
+        <v>1.90314E-2</v>
+      </c>
+      <c r="J13">
+        <v>2298296</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>37880</v>
+      </c>
+      <c r="R13" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="S13" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>37866</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>75.258399999999995</v>
+      </c>
+      <c r="I14">
+        <v>1.4714700000000001E-2</v>
+      </c>
+      <c r="J14">
+        <v>3852797</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>37860</v>
+      </c>
+      <c r="R14" s="2">
+        <v>14</v>
+      </c>
+      <c r="S14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>37865</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>76.353499999999997</v>
+      </c>
+      <c r="I15">
+        <v>2.5406499999999999E-2</v>
+      </c>
+      <c r="J15">
+        <v>1288589</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>37866</v>
+      </c>
+      <c r="R15" s="2">
+        <v>16</v>
+      </c>
+      <c r="S15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <v>37864</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>77.436000000000007</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.9880200000000001E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2096121</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>37874</v>
+      </c>
+      <c r="R16" s="2">
+        <v>18</v>
+      </c>
+      <c r="S16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2">
+        <v>37879</v>
+      </c>
+      <c r="R17" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f>1/B18</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>37861</v>
+      </c>
+      <c r="R18" s="2">
+        <v>14</v>
+      </c>
+      <c r="S18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>37865</v>
+      </c>
+      <c r="R19" s="2">
+        <v>16</v>
+      </c>
+      <c r="S19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>-50</v>
+      </c>
+      <c r="B20" s="2">
+        <v>37871</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>72.330699999999993</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.7525200000000001E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2692482</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>37875</v>
+      </c>
+      <c r="R20" s="2">
+        <v>18</v>
+      </c>
+      <c r="S20" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>37872</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>73.294799999999995</v>
+      </c>
+      <c r="I21">
+        <v>1.7203400000000001E-2</v>
+      </c>
+      <c r="J21">
+        <v>2804680</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>37878</v>
+      </c>
+      <c r="R21" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="S21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-10</v>
+      </c>
+      <c r="B22">
+        <v>37873</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>74.210300000000004</v>
+      </c>
+      <c r="I22">
+        <v>1.8650300000000002E-2</v>
+      </c>
+      <c r="J22">
+        <v>2392819</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>37862</v>
+      </c>
+      <c r="R22" s="2">
+        <v>14</v>
+      </c>
+      <c r="S22" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4">
+        <v>37874</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4">
+        <v>75.907200000000003</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.9600200000000002E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2168884</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>37864</v>
+      </c>
+      <c r="R23" s="2">
+        <v>16</v>
+      </c>
+      <c r="S23" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>37875</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>76.195700000000002</v>
+      </c>
+      <c r="I24">
+        <v>1.6867400000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>2924385</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>37876</v>
+      </c>
+      <c r="R24" s="2">
+        <v>18</v>
+      </c>
+      <c r="S24" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>37876</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>77.166600000000003</v>
+      </c>
+      <c r="I25">
+        <v>2.06094E-2</v>
+      </c>
+      <c r="J25">
+        <v>1954344</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>37877</v>
+      </c>
+      <c r="R25" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="S25" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>19.5</v>
+      </c>
+      <c r="C27">
+        <f>1/B27</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-50</v>
+      </c>
+      <c r="B29" s="2">
+        <v>37882</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>72.503900000000002</v>
+      </c>
+      <c r="I29">
+        <v>1.8712400000000001E-2</v>
+      </c>
+      <c r="J29">
+        <v>2360453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>37881</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>73.394999999999996</v>
+      </c>
+      <c r="I30">
+        <v>1.39087E-2</v>
+      </c>
+      <c r="J30">
+        <v>4292010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-10</v>
+      </c>
+      <c r="B31" s="2">
+        <v>37880</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>74.3001</v>
+      </c>
+      <c r="I31">
+        <v>2.1125999999999999E-2</v>
+      </c>
+      <c r="J31">
+        <v>1864351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>37879</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>75.170699999999997</v>
+      </c>
+      <c r="I32">
+        <v>1.9042799999999999E-2</v>
+      </c>
+      <c r="J32">
+        <v>2298394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>37878</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>76.112700000000004</v>
+      </c>
+      <c r="I33">
+        <v>2.0464099999999999E-2</v>
+      </c>
+      <c r="J33">
+        <v>1983781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2">
+        <v>37877</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="2">
+        <v>77.000100000000003</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2.01256E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2049274</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D290CA5-4F28-7A4D-9979-F15266285338}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>39.151000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>9.1349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-10</v>
+      </c>
+      <c r="B5">
+        <v>-6.2601000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-30</v>
+      </c>
+      <c r="B6">
+        <v>-23.277000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-50</v>
+      </c>
+      <c r="B7">
+        <v>-38.267000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>-0.76459999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <f>-B10/B9</f>
+        <v>0.31650536228093124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E4AC4-5F94-BA40-832F-928FA2C4F999}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1254,7 +6653,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/RadialFieldOps_2/RadialFieldScan.xlsx
+++ b/RadialFieldOps_2/RadialFieldScan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/RadialFieldOps_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A01643-28B5-9941-B868-B36852F4C1F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E27F184-4D77-5648-B502-B80939CAEAC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="32120" windowHeight="17540" xr2:uid="{3DAFEA06-3AA8-BB44-8E27-DDA65B3686C5}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="32120" windowHeight="17540" activeTab="3" xr2:uid="{3DAFEA06-3AA8-BB44-8E27-DDA65B3686C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3983,10 +3983,10 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4313,8 +4313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B752E6E-F960-2F47-AC55-2B0104D935A3}">
   <dimension ref="A2:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="65" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y30:Z35"/>
+    <sheetView zoomScale="65" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5335,6 +5335,12 @@
         <v>2049274</v>
       </c>
     </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J39" s="1">
+        <f>AVERAGE(J4:J9,J13:J18,J22:J27,J31:J36)</f>
+        <v>2230435.5416666665</v>
+      </c>
+    </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
@@ -5370,7 +5376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6A8D8-01A0-1C46-A2D1-628E1D9A77A8}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q2:S25"/>
     </sheetView>
   </sheetViews>
@@ -6549,7 +6555,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6643,20 +6649,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E4AC4-5F94-BA40-832F-928FA2C4F999}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6667,7 +6673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6677,10 +6683,38 @@
       <c r="C4">
         <v>37886</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>37885</v>
+      </c>
+      <c r="G5">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f>ABS(G4-G5)</f>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H6">
+        <f>SQRT(H5^2)</f>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f>G6/H6</f>
+        <v>0.29673202614379085</v>
       </c>
     </row>
   </sheetData>

--- a/RadialFieldOps_2/RadialFieldScan.xlsx
+++ b/RadialFieldOps_2/RadialFieldScan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/RadialFieldOps_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E27F184-4D77-5648-B502-B80939CAEAC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D8D0A1-880D-5645-A145-0C5F1CE78E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="32120" windowHeight="17540" activeTab="3" xr2:uid="{3DAFEA06-3AA8-BB44-8E27-DDA65B3686C5}"/>
+    <workbookView xWindow="780" yWindow="-19340" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{3DAFEA06-3AA8-BB44-8E27-DDA65B3686C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6652,7 +6652,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B5" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
